--- a/10_Management/10_Management/Exam_PMP_TangToc_07032019.xlsx
+++ b/10_Management/10_Management/Exam_PMP_TangToc_07032019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBED4078-6720-4670-B754-B89702F55F02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F4FD9A-C3B3-4914-90E0-462F8468CE66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="1" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="6405" activeTab="5" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="study plan" sheetId="22" r:id="rId1"/>
@@ -18,25 +18,27 @@
     <sheet name="Planning 4" sheetId="24" r:id="rId3"/>
     <sheet name="monitoring 3" sheetId="23" r:id="rId4"/>
     <sheet name="Stakeholder" sheetId="1" r:id="rId5"/>
-    <sheet name="Procurement" sheetId="2" r:id="rId6"/>
-    <sheet name="Closing 1" sheetId="20" r:id="rId7"/>
-    <sheet name="Initiating 1" sheetId="7" r:id="rId8"/>
-    <sheet name="scope" sheetId="10" r:id="rId9"/>
-    <sheet name="Planning5" sheetId="3" r:id="rId10"/>
-    <sheet name="Planning1" sheetId="11" r:id="rId11"/>
-    <sheet name="Planning3" sheetId="16" r:id="rId12"/>
-    <sheet name="Executing1" sheetId="15" r:id="rId13"/>
-    <sheet name="Executing 2" sheetId="17" r:id="rId14"/>
-    <sheet name="Domain-Initiating" sheetId="18" r:id="rId15"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId16"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId17"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId18"/>
-    <sheet name="Domain-Closing" sheetId="19" r:id="rId19"/>
-    <sheet name="Executing" sheetId="4" r:id="rId20"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId21"/>
-    <sheet name="Closing" sheetId="6" r:id="rId22"/>
-    <sheet name="Mock" sheetId="8" r:id="rId23"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId24"/>
+    <sheet name="Resource" sheetId="28" r:id="rId6"/>
+    <sheet name="Risk" sheetId="27" r:id="rId7"/>
+    <sheet name="Procurement" sheetId="2" r:id="rId8"/>
+    <sheet name="Closing 1" sheetId="20" r:id="rId9"/>
+    <sheet name="Initiating 1" sheetId="7" r:id="rId10"/>
+    <sheet name="scope" sheetId="10" r:id="rId11"/>
+    <sheet name="Planning5" sheetId="3" r:id="rId12"/>
+    <sheet name="Planning1" sheetId="11" r:id="rId13"/>
+    <sheet name="Planning3" sheetId="16" r:id="rId14"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId15"/>
+    <sheet name="Executing 2" sheetId="17" r:id="rId16"/>
+    <sheet name="Domain-Initiating" sheetId="18" r:id="rId17"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId18"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId19"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId20"/>
+    <sheet name="Domain-Closing" sheetId="19" r:id="rId21"/>
+    <sheet name="Executing" sheetId="4" r:id="rId22"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId23"/>
+    <sheet name="Closing" sheetId="6" r:id="rId24"/>
+    <sheet name="Mock" sheetId="8" r:id="rId25"/>
+    <sheet name="Full Test" sheetId="9" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="508">
   <si>
     <t>No</t>
   </si>
@@ -1607,19 +1609,124 @@
     <t>note: An effective quality audit should be Structured and independent. Note audit</t>
   </si>
   <si>
+    <t>Stakeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurement </t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication </t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framework </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mock Exam 3 </t>
+  </si>
+  <si>
+    <t>Executing 8</t>
+  </si>
+  <si>
+    <t>Executing 3</t>
+  </si>
+  <si>
+    <t>Executing 2</t>
+  </si>
+  <si>
+    <t>Executing 1</t>
+  </si>
+  <si>
+    <t>Closing 5</t>
+  </si>
+  <si>
+    <t>Closing 4</t>
+  </si>
+  <si>
+    <t>Closing 3</t>
+  </si>
+  <si>
+    <t>Closing 2</t>
+  </si>
+  <si>
+    <t>Closing 1</t>
+  </si>
+  <si>
+    <t>Monitoring 11</t>
+  </si>
+  <si>
+    <t>Monitoring 3</t>
+  </si>
+  <si>
+    <t>Monitoring 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring 1 </t>
+  </si>
+  <si>
+    <t>Planning 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning 4 </t>
+  </si>
+  <si>
+    <t>Planning 3</t>
+  </si>
+  <si>
+    <t>Planning 2</t>
+  </si>
+  <si>
+    <t>Planning 1</t>
+  </si>
+  <si>
+    <t>Initiating 8</t>
+  </si>
+  <si>
+    <t>Initiating 2</t>
+  </si>
+  <si>
+    <t>Initiating 1</t>
+  </si>
+  <si>
+    <t>Note: sử dụng fix price contract khi mà biết được số lượng thực tế công việc. Không thay đổi yêu cầu</t>
+  </si>
+  <si>
+    <t>cần xem lại một số tool trng phần control quality process. Data analyis là tool mục đích để identity source of defect</t>
+  </si>
+  <si>
+    <t>Note: requirement traceability matrix là output của collect requirement process nó dùng để tracing project scope, objectives và test strategy, không có trong requirement project risk</t>
+  </si>
+  <si>
+    <t>Hạn chế chọn những đáp án vô nghĩa. Note: identity risk process is an ongoing. Iteractive risks thường được identified throught project's life cycle</t>
+  </si>
+  <si>
+    <t>Note: cần nắm được cách làm, phân loại risk theo risk category để đảm bảo process toàn diện</t>
+  </si>
+  <si>
     <t>Save time tốt nhất cho việc create wbs: Creating the WBS is a very important process, but often a previous WBS can be used as a template to save time and avoid the risk of forgetting something important</t>
   </si>
   <si>
-    <t>Note: cần nắm được cách làm, phân loại risk theo risk category để đảm bảo process toàn diện</t>
-  </si>
-  <si>
-    <t>Hạn chế chọn những đáp án vô nghĩa. Note: identity risk process is an ongoing. Iteractive risks thường được identified throught project's life cycle</t>
-  </si>
-  <si>
-    <t>Note: requirement traceability matrix là output của collect requirement process nó dùng để tracing project scope, objectives và test strategy, không có trong requirement project risk</t>
-  </si>
-  <si>
-    <t>cần xem lại một số tool trng phần control quality process. Data analyis là tool mục đích để identity source of defect</t>
+    <t>Đánh giá hiệu suất của team (performance appraisal during the manage team process)</t>
   </si>
 </sst>
 </file>
@@ -2601,8 +2708,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2834,7 +2941,9 @@
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="G7" s="56" t="s">
+        <v>468</v>
+      </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
@@ -2869,7 +2978,9 @@
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="G8" s="56" t="s">
+        <v>469</v>
+      </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
@@ -2907,7 +3018,9 @@
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="G9" s="56" t="s">
+        <v>470</v>
+      </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
@@ -2948,7 +3061,9 @@
         <v>395</v>
       </c>
       <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="G10" s="56" t="s">
+        <v>471</v>
+      </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -2988,7 +3103,9 @@
         <v>395</v>
       </c>
       <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
+      <c r="G11" s="56" t="s">
+        <v>472</v>
+      </c>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -3028,7 +3145,9 @@
         <v>395</v>
       </c>
       <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
+      <c r="G12" s="56" t="s">
+        <v>473</v>
+      </c>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
@@ -3067,7 +3186,9 @@
         <v>395</v>
       </c>
       <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
+      <c r="G13" s="56" t="s">
+        <v>474</v>
+      </c>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
@@ -3106,7 +3227,9 @@
         <v>395</v>
       </c>
       <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="G14" s="56" t="s">
+        <v>475</v>
+      </c>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
@@ -3146,7 +3269,9 @@
         <v>395</v>
       </c>
       <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="G15" s="56" t="s">
+        <v>476</v>
+      </c>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
@@ -3180,7 +3305,9 @@
         <v>395</v>
       </c>
       <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="G16" s="56" t="s">
+        <v>477</v>
+      </c>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -3214,7 +3341,9 @@
         <v>395</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="G17" s="56" t="s">
+        <v>478</v>
+      </c>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
@@ -3254,7 +3383,9 @@
         <v>395</v>
       </c>
       <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="G18" s="56" t="s">
+        <v>389</v>
+      </c>
       <c r="H18" s="56"/>
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
@@ -3294,7 +3425,9 @@
         <v>395</v>
       </c>
       <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="G19" s="56" t="s">
+        <v>381</v>
+      </c>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -3332,7 +3465,9 @@
       </c>
       <c r="E20" s="72"/>
       <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="G20" s="56" t="s">
+        <v>479</v>
+      </c>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
@@ -3364,7 +3499,9 @@
       </c>
       <c r="E21" s="72"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="G21" s="56" t="s">
+        <v>373</v>
+      </c>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
       <c r="J21" s="56"/>
@@ -3396,7 +3533,9 @@
       </c>
       <c r="E22" s="72"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
+      <c r="G22" s="56" t="s">
+        <v>372</v>
+      </c>
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
@@ -3434,7 +3573,9 @@
       </c>
       <c r="E23" s="72"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
+      <c r="G23" s="56" t="s">
+        <v>480</v>
+      </c>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
@@ -3472,7 +3613,9 @@
       </c>
       <c r="E24" s="72"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
+      <c r="G24" s="56" t="s">
+        <v>481</v>
+      </c>
       <c r="H24" s="56"/>
       <c r="I24" s="56"/>
       <c r="J24" s="56"/>
@@ -3510,7 +3653,9 @@
       </c>
       <c r="E25" s="72"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
+      <c r="G25" s="56" t="s">
+        <v>482</v>
+      </c>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
       <c r="J25" s="56"/>
@@ -3542,7 +3687,9 @@
       </c>
       <c r="E26" s="72"/>
       <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
+      <c r="G26" s="56" t="s">
+        <v>483</v>
+      </c>
       <c r="H26" s="56"/>
       <c r="I26" s="56"/>
       <c r="J26" s="56"/>
@@ -3574,7 +3721,9 @@
       </c>
       <c r="E27" s="72"/>
       <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
+      <c r="G27" s="56" t="s">
+        <v>484</v>
+      </c>
       <c r="H27" s="56"/>
       <c r="I27" s="56"/>
       <c r="J27" s="56"/>
@@ -3612,7 +3761,9 @@
       </c>
       <c r="E28" s="72"/>
       <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
+      <c r="G28" s="56" t="s">
+        <v>485</v>
+      </c>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="56"/>
@@ -3650,7 +3801,9 @@
       </c>
       <c r="E29" s="72"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
+      <c r="G29" s="56" t="s">
+        <v>486</v>
+      </c>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
       <c r="J29" s="56"/>
@@ -3688,7 +3841,9 @@
       </c>
       <c r="E30" s="72"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
+      <c r="G30" s="56" t="s">
+        <v>487</v>
+      </c>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
@@ -3726,7 +3881,9 @@
       </c>
       <c r="E31" s="72"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
+      <c r="G31" s="56" t="s">
+        <v>488</v>
+      </c>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
@@ -3764,7 +3921,9 @@
       </c>
       <c r="E32" s="72"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
+      <c r="G32" s="56" t="s">
+        <v>489</v>
+      </c>
       <c r="H32" s="56"/>
       <c r="I32" s="56"/>
       <c r="J32" s="56"/>
@@ -3796,7 +3955,9 @@
       </c>
       <c r="E33" s="72"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
+      <c r="G33" s="56" t="s">
+        <v>490</v>
+      </c>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
       <c r="J33" s="56"/>
@@ -3828,7 +3989,9 @@
       </c>
       <c r="E34" s="72"/>
       <c r="F34" s="55"/>
-      <c r="G34" s="56"/>
+      <c r="G34" s="56" t="s">
+        <v>491</v>
+      </c>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
@@ -3866,7 +4029,9 @@
       </c>
       <c r="E35" s="72"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="56"/>
+      <c r="G35" s="56" t="s">
+        <v>492</v>
+      </c>
       <c r="H35" s="56"/>
       <c r="I35" s="56"/>
       <c r="J35" s="56"/>
@@ -3904,7 +4069,9 @@
       </c>
       <c r="E36" s="72"/>
       <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
+      <c r="G36" s="56" t="s">
+        <v>493</v>
+      </c>
       <c r="H36" s="56"/>
       <c r="I36" s="56"/>
       <c r="J36" s="56"/>
@@ -3942,7 +4109,9 @@
       </c>
       <c r="E37" s="72"/>
       <c r="F37" s="55"/>
-      <c r="G37" s="56"/>
+      <c r="G37" s="56" t="s">
+        <v>494</v>
+      </c>
       <c r="H37" s="56"/>
       <c r="I37" s="56"/>
       <c r="J37" s="56"/>
@@ -3974,7 +4143,9 @@
       </c>
       <c r="E38" s="72"/>
       <c r="F38" s="55"/>
-      <c r="G38" s="56"/>
+      <c r="G38" s="56" t="s">
+        <v>495</v>
+      </c>
       <c r="H38" s="56"/>
       <c r="I38" s="56"/>
       <c r="J38" s="56"/>
@@ -4006,7 +4177,9 @@
       </c>
       <c r="E39" s="72"/>
       <c r="F39" s="55"/>
-      <c r="G39" s="56"/>
+      <c r="G39" s="56" t="s">
+        <v>496</v>
+      </c>
       <c r="H39" s="56"/>
       <c r="I39" s="56"/>
       <c r="J39" s="56"/>
@@ -4044,7 +4217,9 @@
       </c>
       <c r="E40" s="72"/>
       <c r="F40" s="55"/>
-      <c r="G40" s="56"/>
+      <c r="G40" s="56" t="s">
+        <v>497</v>
+      </c>
       <c r="H40" s="56"/>
       <c r="I40" s="56"/>
       <c r="J40" s="56"/>
@@ -4082,7 +4257,9 @@
       </c>
       <c r="E41" s="72"/>
       <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
+      <c r="G41" s="56" t="s">
+        <v>498</v>
+      </c>
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
       <c r="J41" s="56"/>
@@ -4120,7 +4297,9 @@
       </c>
       <c r="E42" s="72"/>
       <c r="F42" s="55"/>
-      <c r="G42" s="56"/>
+      <c r="G42" s="56" t="s">
+        <v>499</v>
+      </c>
       <c r="H42" s="56"/>
       <c r="I42" s="56"/>
       <c r="J42" s="56"/>
@@ -4152,7 +4331,9 @@
       </c>
       <c r="E43" s="72"/>
       <c r="F43" s="55"/>
-      <c r="G43" s="56"/>
+      <c r="G43" s="56" t="s">
+        <v>500</v>
+      </c>
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56"/>
@@ -31310,6 +31491,420 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
+    <col min="7" max="7" width="29.7109375" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="90">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" ht="105">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="183" customHeight="1">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="60">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" ht="75">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" ht="45">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="90">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="45">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" ht="60">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" ht="45">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26" xr:uid="{BA14E364-48D9-4A07-A118-7CEA555DD255}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26" xr:uid="{050BE225-178B-409F-8A12-8704C43FC1BF}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7, Task 8"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Initiating'!A1" display="Domain" xr:uid="{C1A74F62-E9E5-41A8-A34C-DC92C164B9FB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E26"/>
@@ -31652,7 +32247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L52"/>
@@ -32631,7 +33226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC2793-45B1-4029-830E-35CE2386D9D1}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J51"/>
@@ -33670,7 +34265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F51"/>
@@ -34374,7 +34969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66FFD739-AF93-4AA7-A2F1-3E80882A8922}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F51"/>
@@ -35073,7 +35668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475F131D-CBCC-4B8F-BDF4-B1E2E34C7098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K9"/>
@@ -35251,7 +35846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K13"/>
@@ -35503,7 +36098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:K7"/>
@@ -35646,317 +36241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="101"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="101"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
-  <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="101"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="101"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="101"/>
-    </row>
-    <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="102" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50057963-75E5-4253-A7F5-E58A81C4C7B8}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36316,7 +36606,7 @@
       </c>
       <c r="D33" s="83"/>
       <c r="E33" s="86" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="F33" s="87"/>
     </row>
@@ -36330,7 +36620,7 @@
       </c>
       <c r="D34" s="83"/>
       <c r="E34" s="86" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="F34" s="87"/>
     </row>
@@ -36364,7 +36654,7 @@
       </c>
       <c r="D37" s="83"/>
       <c r="E37" s="86" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="F37" s="87"/>
     </row>
@@ -36378,7 +36668,7 @@
       </c>
       <c r="D38" s="83"/>
       <c r="E38" s="86" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="F38" s="87"/>
     </row>
@@ -36422,7 +36712,7 @@
       </c>
       <c r="D42" s="83"/>
       <c r="E42" s="86" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="F42" s="87"/>
     </row>
@@ -36540,21 +36830,327 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{BEF94545-53BB-4A25-884A-FB46C0F726AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{E0408574-49AF-4401-A975-B08ADA5743DD}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{E0EA92E9-7698-4F99-B782-D75988C37ED4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{6FF77AB7-AA25-41CA-91C7-3F988A01A840}">
       <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{F97348EE-9E21-4DDD-9C55-4ED9181CEDA3}"/>
+    <hyperlink ref="F1" location="'Domain-Planning'!A1" display="Domain" xr:uid="{B4589F69-0D15-4EF8-8809-D974453C4DC4}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC2900-1516-4D11-BB5E-CB91221B0668}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="101"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+    </row>
+    <row r="8" spans="1:11" ht="150.75" customHeight="1" thickBot="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E26"/>
@@ -36841,7 +37437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
@@ -36856,7 +37452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1"/>
@@ -36871,7 +37467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1"/>
@@ -36884,7 +37480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1"/>
@@ -37513,8 +38109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF44A-91AF-4F6D-AE5E-E58F57961686}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38132,7 +38728,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38510,12 +39106,286 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B567D7-4235-4BF6-8486-7BD591ECD0EB}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="79"/>
+    <col min="2" max="2" width="21.42578125" style="79" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="79" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="79" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{36A8C5C4-0BD5-4D29-B56B-F872AD593D13}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967F5E40-1BAA-4435-B68D-2D1BF76C2735}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="79"/>
+    <col min="2" max="2" width="21.42578125" style="79" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="79" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="79" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{DBD32C44-2D5F-43A4-9F6E-1E46D3BF1820}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3370A11-AD88-47EC-B564-C7B459D1B3C6}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38566,16 +39436,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
@@ -38657,7 +39533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3E9025-2166-405B-928B-811F653123F3}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F26"/>
@@ -38996,418 +39872,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67830A5-61CE-4324-A223-E0E1F9224A73}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
-    <col min="7" max="7" width="29.7109375" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" ht="90">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="45">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="105">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="183" customHeight="1">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="60">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" ht="75">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="45">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" ht="90">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" ht="60">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="45">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26" xr:uid="{BA14E364-48D9-4A07-A118-7CEA555DD255}">
-      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26" xr:uid="{050BE225-178B-409F-8A12-8704C43FC1BF}">
-      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7, Task 8"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F1" location="'Domain-Initiating'!A1" display="Domain" xr:uid="{C1A74F62-E9E5-41A8-A34C-DC92C164B9FB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F5D74C-E5D9-45C3-98E4-07977C9F0161}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>